--- a/Rendu_1/VerityTable.xlsx
+++ b/Rendu_1/VerityTable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/Rendu_1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="212" documentId="11_AD4DB114E441178AC67DF403BE13D00A693EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{205C8820-4FEC-44F7-B2D6-A4C98CF16458}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,87 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>reset_i</t>
+  </si>
+  <si>
+    <t>opcode_i</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>PC_inc_o</t>
+  </si>
+  <si>
+    <t>PC_load_o</t>
+  </si>
+  <si>
+    <t>IR_load_o</t>
+  </si>
+  <si>
+    <t>oper_sel_o</t>
+  </si>
+  <si>
+    <t>oper_load_o</t>
+  </si>
+  <si>
+    <t>Accu_load_o</t>
+  </si>
+  <si>
+    <t>CCR_load_o</t>
+  </si>
+  <si>
+    <t>data_wr_o</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>CCR_i (0)</t>
+  </si>
+  <si>
+    <t>CCR_i  (1)</t>
+  </si>
+  <si>
+    <t>CCR_i (2)</t>
+  </si>
+  <si>
+    <t>CCR_i (3)</t>
+  </si>
+  <si>
+    <t>sRESET</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +123,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +168,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +436,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="16" width="20.77734375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:P2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Rendu_1/VerityTable.xlsx
+++ b/Rendu_1/VerityTable.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/Rendu_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="11_AD4DB114E441178AC67DF403BE13D00A693EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{205C8820-4FEC-44F7-B2D6-A4C98CF16458}"/>
+  <xr:revisionPtr revIDLastSave="519" documentId="11_AD4DB114E441178AC67DF403BE13D00A693EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59E7981F-7BEA-4B3F-9EAA-D8844795DDB4}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>reset_i</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="60">
   <si>
     <t>opcode_i</t>
   </si>
@@ -79,13 +76,142 @@
   </si>
   <si>
     <t>sRESET</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>sIR_LOAD</t>
+  </si>
+  <si>
+    <t>sOPCODE_DECODE</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>BZ0</t>
+  </si>
+  <si>
+    <t>BZ1</t>
+  </si>
+  <si>
+    <t>BC0</t>
+  </si>
+  <si>
+    <t>BC1</t>
+  </si>
+  <si>
+    <t>BV0</t>
+  </si>
+  <si>
+    <t>BV1</t>
+  </si>
+  <si>
+    <t>BN0</t>
+  </si>
+  <si>
+    <t>BN1</t>
+  </si>
+  <si>
+    <t>STOREaddr</t>
+  </si>
+  <si>
+    <t>sIR_DECODE</t>
+  </si>
+  <si>
+    <t>ROLaccu</t>
+  </si>
+  <si>
+    <t>RORaccu</t>
+  </si>
+  <si>
+    <t>DECaccu</t>
+  </si>
+  <si>
+    <t>INCaccu</t>
+  </si>
+  <si>
+    <t>NEGaccu</t>
+  </si>
+  <si>
+    <t>LOADconst</t>
+  </si>
+  <si>
+    <t>NEGconst</t>
+  </si>
+  <si>
+    <t>LOADaddr</t>
+  </si>
+  <si>
+    <t>INCaddr</t>
+  </si>
+  <si>
+    <t>DECaddr</t>
+  </si>
+  <si>
+    <t>NEGaddr</t>
+  </si>
+  <si>
+    <t>ANDconst</t>
+  </si>
+  <si>
+    <t>ORconst</t>
+  </si>
+  <si>
+    <t>XORconst</t>
+  </si>
+  <si>
+    <t>ADDconst</t>
+  </si>
+  <si>
+    <t>ADCconst</t>
+  </si>
+  <si>
+    <t>ANDaddr</t>
+  </si>
+  <si>
+    <t>ORaddr</t>
+  </si>
+  <si>
+    <t>XORaddr</t>
+  </si>
+  <si>
+    <t>ADDaddr</t>
+  </si>
+  <si>
+    <t>ADCaddr</t>
+  </si>
+  <si>
+    <t>MUX_ACCU</t>
+  </si>
+  <si>
+    <t>MUX_CONST</t>
+  </si>
+  <si>
+    <t>MUX_DATA</t>
+  </si>
+  <si>
+    <t>MUX_ACCU_CONST</t>
+  </si>
+  <si>
+    <t>MUX_ACCU_DATA</t>
+  </si>
+  <si>
+    <t>SETC</t>
+  </si>
+  <si>
+    <t>CLRC</t>
+  </si>
+  <si>
+    <t>TRFNC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,16 +232,141 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -138,24 +389,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="20">
+    <cellStyle name="Accent" xfId="3" xr:uid="{A1B508B7-69D0-412F-81C9-C3610FE1A1AE}"/>
+    <cellStyle name="Accent 1" xfId="4" xr:uid="{D68F76C0-B576-4328-857D-8825E1DEDB1E}"/>
+    <cellStyle name="Accent 2" xfId="5" xr:uid="{583B0FB3-6E5D-42B1-8621-C04A96A5DF64}"/>
+    <cellStyle name="Accent 3" xfId="6" xr:uid="{DA8F3ACE-A1F8-404C-9C93-42E4BE79F93B}"/>
+    <cellStyle name="Bad" xfId="7" xr:uid="{4D0C1B3B-F498-4548-BE77-1349FCC1C454}"/>
+    <cellStyle name="Error" xfId="8" xr:uid="{4B5C4CC8-4539-45FD-8A4E-22E965C5842E}"/>
+    <cellStyle name="Footnote" xfId="9" xr:uid="{A36CFB46-59FA-4C16-B330-436C31D64649}"/>
+    <cellStyle name="Good" xfId="10" xr:uid="{B44400CB-293D-4144-AA38-E590D4A8E8E3}"/>
+    <cellStyle name="Heading" xfId="11" xr:uid="{61EEC1B8-08D4-4931-8FB4-10C7F8505475}"/>
+    <cellStyle name="Heading 1" xfId="12" xr:uid="{5B2519AE-2510-44A7-AECD-08F13E5A7BFC}"/>
+    <cellStyle name="Heading 2" xfId="13" xr:uid="{4FE875A9-4C2E-4E5A-98E8-16C55D5AD869}"/>
+    <cellStyle name="Hyperlink" xfId="14" xr:uid="{ADF28A03-9B66-4BF2-B293-C021F3ADEA72}"/>
+    <cellStyle name="Neutral" xfId="15" xr:uid="{97C87F5B-FE40-4252-987F-F842DC80D39B}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{DF59FC30-9E54-4966-983D-3742BEDCCF6E}"/>
+    <cellStyle name="Note 2" xfId="2" xr:uid="{99A46C5C-6870-47B9-9127-3417E240E7B4}"/>
+    <cellStyle name="Result" xfId="16" xr:uid="{ECE2ACD5-32A3-4D1F-8A1F-78E04C3104F6}"/>
+    <cellStyle name="Status" xfId="17" xr:uid="{FB49C454-7ECA-4542-8F81-8DCBC93AC1F5}"/>
+    <cellStyle name="Text" xfId="18" xr:uid="{C3416962-F84C-44EA-ACD3-A6AD33CE33AB}"/>
+    <cellStyle name="Warning" xfId="19" xr:uid="{07E5AEDA-B1A1-4B11-8F81-351E4C2C513C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,97 +834,2608 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P4"/>
+  <dimension ref="B1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="16" width="20.77734375" style="1" customWidth="1"/>
+    <col min="2" max="15" width="20.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:15" ht="15" thickBot="1"/>
+    <row r="2" spans="2:15" ht="31.2" thickTop="1" thickBot="1">
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="2:15" ht="18.600000000000001" thickTop="1" thickBot="1">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="15" thickTop="1">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" s="4" customFormat="1">
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1">
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="4" customFormat="1">
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" s="4" customFormat="1">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" s="4" customFormat="1">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" s="4" customFormat="1">
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" s="4" customFormat="1">
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" s="4" customFormat="1">
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" s="4" customFormat="1">
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" s="4" customFormat="1">
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" s="4" customFormat="1">
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" s="4" customFormat="1">
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" s="4" customFormat="1">
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" s="4" customFormat="1">
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" s="4" customFormat="1">
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" s="4" customFormat="1">
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" s="4" customFormat="1">
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" s="4" customFormat="1">
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" s="4" customFormat="1">
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" s="4" customFormat="1">
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" s="4" customFormat="1">
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" s="4" customFormat="1">
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" s="4" customFormat="1">
+      <c r="B27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" s="4" customFormat="1">
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" s="4" customFormat="1">
+      <c r="B29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" s="4" customFormat="1">
+      <c r="B30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" s="4" customFormat="1">
+      <c r="B31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" s="4" customFormat="1">
+      <c r="B32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>1</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" s="4" customFormat="1">
+      <c r="B33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" s="4" customFormat="1">
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" s="4" customFormat="1">
+      <c r="B35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" s="4" customFormat="1">
+      <c r="B36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>1</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" s="4" customFormat="1">
+      <c r="B37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" s="4" customFormat="1">
+      <c r="B38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" s="4" customFormat="1">
+      <c r="B39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" s="4" customFormat="1">
+      <c r="B40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" s="4" customFormat="1">
+      <c r="B41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" s="4" customFormat="1">
+      <c r="B42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" s="4" customFormat="1">
+      <c r="B43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>1</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" s="4" customFormat="1">
+      <c r="B44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <v>1</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" s="4" customFormat="1">
+      <c r="B45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5">
+        <v>1</v>
+      </c>
+      <c r="L45" s="5">
+        <v>1</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" s="4" customFormat="1">
+      <c r="B46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>1</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" s="4" customFormat="1">
+      <c r="B47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5">
+        <v>1</v>
+      </c>
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" s="4" customFormat="1">
+      <c r="B48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5">
+        <v>1</v>
+      </c>
+      <c r="L48" s="5">
+        <v>1</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" s="4" customFormat="1">
+      <c r="B49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5">
+        <v>1</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" s="4" customFormat="1">
+      <c r="B50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5">
+        <v>1</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" s="4" customFormat="1">
+      <c r="B51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5">
+        <v>1</v>
+      </c>
+      <c r="L51" s="5">
+        <v>1</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" s="4" customFormat="1">
+      <c r="B52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5">
+        <v>1</v>
+      </c>
+      <c r="L52" s="5">
+        <v>1</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" s="4" customFormat="1">
+      <c r="B53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5">
+        <v>1</v>
+      </c>
+      <c r="L53" s="5">
+        <v>1</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" s="4" customFormat="1">
+      <c r="B54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1</v>
+      </c>
+      <c r="K54" s="5">
+        <v>1</v>
+      </c>
+      <c r="L54" s="5">
+        <v>1</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" s="4" customFormat="1">
+      <c r="B55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <v>1</v>
+      </c>
+      <c r="K55" s="5">
+        <v>1</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" s="4" customFormat="1">
+      <c r="B56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5">
+        <v>1</v>
+      </c>
+      <c r="L56" s="5">
+        <v>1</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" s="4" customFormat="1">
+      <c r="B57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
+        <v>1</v>
+      </c>
+      <c r="L57" s="5">
+        <v>1</v>
+      </c>
+      <c r="M57" s="5">
+        <v>0</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" s="4" customFormat="1">
+      <c r="B58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
+        <v>1</v>
+      </c>
+      <c r="L58" s="5">
+        <v>1</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" s="4" customFormat="1">
+      <c r="B59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5">
+        <v>1</v>
+      </c>
+      <c r="L59" s="5">
+        <v>1</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" s="4" customFormat="1">
+      <c r="B60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
+        <v>1</v>
+      </c>
+      <c r="L60" s="5">
+        <v>1</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" s="4" customFormat="1">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
